--- a/biology/Zoologie/Feulement/Feulement.xlsx
+++ b/biology/Zoologie/Feulement/Feulement.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le feulement (du verbe feuler) est un cri poussé par certains félidés, en complément du rugissement et du ronronnement.
 </t>
@@ -511,10 +523,12 @@
           <t>Sommaire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le félin feule (on dit familièrement qu'il crache)[1] en expulsant rapidement de l’air par la gorge, sous la forme d'un « crouir » aigu et brutal[2]. Le feulement est souvent associé à une posture de défense ou d'attaque, les yeux fixes et aux aguets, le corps tendu prêt à bondir[3].
-Chez certains félidés (panthère nébuleuse, panthère des neiges), elles s'appellent pour se trouver. Elles se choisissent, se cherchent. Les feulements s'accordent. Chez le tigre, il feule, miaule, râle, rauque, ronronne et rugit[4]'[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le félin feule (on dit familièrement qu'il crache) en expulsant rapidement de l’air par la gorge, sous la forme d'un « crouir » aigu et brutal. Le feulement est souvent associé à une posture de défense ou d'attaque, les yeux fixes et aux aguets, le corps tendu prêt à bondir.
+Chez certains félidés (panthère nébuleuse, panthère des neiges), elles s'appellent pour se trouver. Elles se choisissent, se cherchent. Les feulements s'accordent. Chez le tigre, il feule, miaule, râle, rauque, ronronne et rugit'.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Anatomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'os hyoïde, chez les petits félins, ne peut pas vibrer ; ils ne peuvent qu'émettre une plainte proche du miaulement[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'os hyoïde, chez les petits félins, ne peut pas vibrer ; ils ne peuvent qu'émettre une plainte proche du miaulement.
 </t>
         </is>
       </c>
